--- a/biology/Médecine/Effet_déterministe/Effet_déterministe.xlsx
+++ b/biology/Médecine/Effet_déterministe/Effet_déterministe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Effet_d%C3%A9terministe</t>
+          <t>Effet_déterministe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un effet déterministe est un effet des rayonnements ionisants néfaste à la santé. Il résulte de dommages irréparables sur l'ADN causés par une dose importante d'irradiation ; cela entraîne la mort de nombreuses cellules.
 Contrairement à un effet stochastique, un effet déterministe apparaît de façon certaine quand le seuil limite de rayonnements sur un tissu donné est dépassé, et en général peu de temps après l'irradiation. Au-delà du seuil, l'importance et la gravité des symptômes augmentent en fonction de la dose reçue. Les symptômes  peuvent être généralisés ou localisés.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Effet_d%C3%A9terministe</t>
+          <t>Effet_déterministe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,21 +528,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cas d'une exposition généralisée
-Les effets déterministes liés à une exposition importante et généralisée sur l'organisme entier correspondent au Syndrome d'irradiation aiguë.
+          <t>Cas d'une exposition généralisée</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets déterministes liés à une exposition importante et généralisée sur l'organisme entier correspondent au Syndrome d'irradiation aiguë.
 L'évolution d'une telle exposition se déroule en quatre phases :
 Une phase prodromique
 Une phase de latence
 Une phase critique
 Une phase de récupération.
-Dans le cas d'une exposition importante, la dose létale DL50/60 (dose pour laquelle 50 % des individus décèdent au bout de 60 jours en l'absence de traitement) est de 3 à 5 Gy[1] pour un individu.
-Cas d’une exposition localisée
-Cela concerne le plus souvent les extrémités et particulièrement les mains (sources saisies accidentellement à mains nues, radiodermite...). Les symptômes observés sont donc principalement cutanés (brûlure radiologique pouvant aller jusqu'à la nécrose).
-Ces lésions sont très longues à guérir, plusieurs mois voire des années. Dans le cas de nécroses, celles-ci peuvent continuer à s'étendre longtemps après l'irradiation.
-Cas des gonades
-Les gonades sont des organes très sensibles.
-Les rayonnements ionisants interfèrent en particulier avec la spermatogenèse chez l'homme et le nombre d'ovocytes chez la femme.
-Les femmes plus âgées sont plus sensibles aux rayonnements ionisants.
+Dans le cas d'une exposition importante, la dose létale DL50/60 (dose pour laquelle 50 % des individus décèdent au bout de 60 jours en l'absence de traitement) est de 3 à 5 Gy pour un individu.
 </t>
         </is>
       </c>
@@ -541,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Effet_d%C3%A9terministe</t>
+          <t>Effet_déterministe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,10 +566,89 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Effets précoces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cas d’une exposition localisée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cela concerne le plus souvent les extrémités et particulièrement les mains (sources saisies accidentellement à mains nues, radiodermite...). Les symptômes observés sont donc principalement cutanés (brûlure radiologique pouvant aller jusqu'à la nécrose).
+Ces lésions sont très longues à guérir, plusieurs mois voire des années. Dans le cas de nécroses, celles-ci peuvent continuer à s'étendre longtemps après l'irradiation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Effet_déterministe</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Effet_d%C3%A9terministe</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Effets précoces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cas des gonades</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les gonades sont des organes très sensibles.
+Les rayonnements ionisants interfèrent en particulier avec la spermatogenèse chez l'homme et le nombre d'ovocytes chez la femme.
+Les femmes plus âgées sont plus sensibles aux rayonnements ionisants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Effet_déterministe</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Effet_d%C3%A9terministe</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Effets tardifs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">1/ Effets somatiques : concernant l'individu exposé :
 - Baisse de la durée de vie: Elle est expliquée par des altérations progressives des petits vaisseaux et une microfibrose des espaces intercellulaires. Elle a été prouvée chez les victimes d'Hiroshima
@@ -573,31 +662,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Effet_d%C3%A9terministe</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Effet_déterministe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Effet_d%C3%A9terministe</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Effets tératogènes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les effets tératogènes sont des effets qui surviennent sur l'embryon dans le cas d'une exposition aux rayonnements ionisants après la fécondation.
 En effet, durant l'embryogenèse et plus particulièrement du 9e au 60e jours de grossesse (organogenèse), le système nerveux central est plus sensible.
